--- a/Datasets/Ajmer.xlsx
+++ b/Datasets/Ajmer.xlsx
@@ -51,9 +51,6 @@
     <t>TGM(Tonnes)</t>
   </si>
   <si>
-    <t>Production(Tonnes)</t>
-  </si>
-  <si>
     <t>2007-08</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>2016-17</t>
+  </si>
+  <si>
+    <t>Yield</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -448,7 +448,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -490,12 +490,12 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>420.8</v>
@@ -519,12 +519,12 @@
         <v>21457</v>
       </c>
       <c r="I2">
-        <v>523.4</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>670.1</v>
@@ -548,12 +548,12 @@
         <v>16039</v>
       </c>
       <c r="I3">
-        <v>374.3</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>224</v>
@@ -577,12 +577,12 @@
         <v>58681</v>
       </c>
       <c r="I4">
-        <v>216.3</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>685.2</v>
@@ -606,12 +606,12 @@
         <v>57062</v>
       </c>
       <c r="I5">
-        <v>207.2</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>585.29999999999995</v>
@@ -635,12 +635,12 @@
         <v>44336</v>
       </c>
       <c r="I6">
-        <v>146.4</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>602.70000000000005</v>
@@ -664,12 +664,12 @@
         <v>64229</v>
       </c>
       <c r="I7">
-        <v>219.3</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>565</v>
@@ -693,12 +693,12 @@
         <v>54533</v>
       </c>
       <c r="I8">
-        <v>193.1</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>584.1</v>
@@ -722,12 +722,12 @@
         <v>60954</v>
       </c>
       <c r="I9">
-        <v>131.9</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>389.9</v>
@@ -751,12 +751,12 @@
         <v>41786</v>
       </c>
       <c r="I10">
-        <v>116.8</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>652.1</v>
@@ -780,7 +780,7 @@
         <v>54402</v>
       </c>
       <c r="I11">
-        <v>126.7</v>
+        <v>2390</v>
       </c>
     </row>
   </sheetData>
